--- a/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Estudios-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4380</v>
+        <v>3941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003468197299503415</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01201979815221888</v>
+        <v>0.01081536791782378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4045</v>
+        <v>4304</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002044741665007712</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006545677960917451</v>
+        <v>0.006963520574874033</v>
       </c>
     </row>
     <row r="5">
@@ -817,16 +817,16 @@
         <v>363102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>359986</v>
+        <v>360425</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>364366</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9965318027004968</v>
+        <v>0.9965318027004965</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9879802018477818</v>
+        <v>0.9891846320821759</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,16 +838,16 @@
         <v>616757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>613976</v>
+        <v>613717</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>618021</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9979552583349922</v>
+        <v>0.9979552583349924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9934543220390826</v>
+        <v>0.9930364794251255</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3791</v>
+        <v>3776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0007780954837649649</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.003951320061819029</v>
+        <v>0.003935739322741558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4352</v>
+        <v>3764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0007601609158439772</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00441576776603943</v>
+        <v>0.003819282241494691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4584</v>
+        <v>5279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007690082917360146</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.002356830594262305</v>
+        <v>0.002713884128753648</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>958763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>955719</v>
+        <v>955734</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>959510</v>
@@ -1022,7 +1022,7 @@
         <v>0.9992219045162352</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.996048679938181</v>
+        <v>0.9960642606772584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>984770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>981167</v>
+        <v>981755</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>985519</v>
@@ -1043,7 +1043,7 @@
         <v>0.9992398390841559</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9955842322339606</v>
+        <v>0.9961807177585053</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>1943533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1940445</v>
+        <v>1939750</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1945029</v>
@@ -1064,7 +1064,7 @@
         <v>0.999230991708264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9976431694057376</v>
+        <v>0.9972861158712464</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3745</v>
+        <v>3827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0004784689312838138</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.002400090843881152</v>
+        <v>0.002452734061925452</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1349,19 +1349,19 @@
         <v>2013</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5510</v>
+        <v>5602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001189538200478654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0003309967969837351</v>
+        <v>0.0003314290403748119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003256532325714667</v>
+        <v>0.003310737606894672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1370,19 +1370,19 @@
         <v>2759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6482</v>
+        <v>7046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.000848405351342999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0002283948538748057</v>
+        <v>0.0002146435521435615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.001992963467154234</v>
+        <v>0.002166276838255611</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         <v>1559627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1556629</v>
+        <v>1556547</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1560374</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9995215310687162</v>
+        <v>0.9995215310687161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9975999091561187</v>
+        <v>0.9975472659380744</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1420,19 +1420,19 @@
         <v>1690111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1686614</v>
+        <v>1686522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1691564</v>
+        <v>1691563</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9988104617995214</v>
+        <v>0.9988104617995213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9967434676742859</v>
+        <v>0.9966892623931054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9996690032030162</v>
+        <v>0.9996685709596252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3816</v>
@@ -1441,19 +1441,19 @@
         <v>3249739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3246016</v>
+        <v>3245452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3251755</v>
+        <v>3251800</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.999151594648657</v>
+        <v>0.9991515946486571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9980070365328457</v>
+        <v>0.997833723161744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9997716051461252</v>
+        <v>0.9997853564478564</v>
       </c>
     </row>
     <row r="15">
